--- a/NWU Tech Trends Telemetry Portal  User Acceptance Testing/NWU Tech Trends Data.xlsx
+++ b/NWU Tech Trends Telemetry Portal  User Acceptance Testing/NWU Tech Trends Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhlanhla\Documents\UiPath\CMPG-323-Project-4-\NWU Tech Trends Telemetry Portal  User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D305FAD-83FF-4209-925C-0B2150D36924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10331AF-7486-4BD4-9F60-CC2728808D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="18240" windowHeight="9435" activeTab="1" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
   </bookViews>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1F3F-070D-4831-8C1F-2CBF832928B6}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,6 +1496,12 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1513,6 +1519,12 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1530,6 +1542,12 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1547,6 +1565,12 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1564,6 +1588,12 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1581,6 +1611,12 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1598,6 +1634,12 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1615,6 +1657,12 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1632,6 +1680,12 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1649,8 +1703,14 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>120</v>
       </c>
@@ -1666,8 +1726,14 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -1683,8 +1749,14 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -1700,8 +1772,14 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>123</v>
       </c>
@@ -1714,8 +1792,17 @@
       <c r="D20" s="2">
         <v>44959</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
@@ -1728,8 +1815,17 @@
       <c r="D21" s="2">
         <v>44960</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -1742,8 +1838,17 @@
       <c r="D22" s="2">
         <v>44961</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -1756,8 +1861,17 @@
       <c r="D23" s="2">
         <v>44962</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
@@ -1770,8 +1884,17 @@
       <c r="D24" s="2">
         <v>44963</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -1784,8 +1907,17 @@
       <c r="D25" s="2">
         <v>44964</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -1798,8 +1930,17 @@
       <c r="D26" s="2">
         <v>44965</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -1812,8 +1953,17 @@
       <c r="D27" s="2">
         <v>44966</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>131</v>
       </c>
@@ -1826,8 +1976,17 @@
       <c r="D28" s="2">
         <v>44967</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
@@ -1840,8 +1999,17 @@
       <c r="D29" s="2">
         <v>44968</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -1854,8 +2022,17 @@
       <c r="D30" s="2">
         <v>44969</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -1868,8 +2045,17 @@
       <c r="D31" s="2">
         <v>44970</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -1882,8 +2068,17 @@
       <c r="D32" s="2">
         <v>44971</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -1896,8 +2091,17 @@
       <c r="D33" s="2">
         <v>44972</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -1910,8 +2114,17 @@
       <c r="D34" s="2">
         <v>44973</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -1924,8 +2137,17 @@
       <c r="D35" s="2">
         <v>44974</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>139</v>
       </c>
@@ -1938,8 +2160,17 @@
       <c r="D36" s="2">
         <v>44975</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
@@ -1952,8 +2183,17 @@
       <c r="D37" s="2">
         <v>44976</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
@@ -1966,8 +2206,17 @@
       <c r="D38" s="2">
         <v>44977</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -1980,8 +2229,17 @@
       <c r="D39" s="2">
         <v>44978</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -1994,8 +2252,14 @@
       <c r="D40" s="2">
         <v>44979</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>144</v>
       </c>
@@ -2008,8 +2272,14 @@
       <c r="D41" s="2">
         <v>44980</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -2022,8 +2292,14 @@
       <c r="D42" s="2">
         <v>44981</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -2036,8 +2312,14 @@
       <c r="D43" s="2">
         <v>44982</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>147</v>
       </c>
@@ -2050,8 +2332,14 @@
       <c r="D44" s="2">
         <v>44983</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
@@ -2064,8 +2352,14 @@
       <c r="D45" s="2">
         <v>44984</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -2078,8 +2372,14 @@
       <c r="D46" s="2">
         <v>44985</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
@@ -2092,8 +2392,14 @@
       <c r="D47" s="2">
         <v>44986</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>151</v>
       </c>
@@ -2106,8 +2412,14 @@
       <c r="D48" s="2">
         <v>44987</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>152</v>
       </c>
@@ -2120,8 +2432,14 @@
       <c r="D49" s="2">
         <v>44988</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -2134,8 +2452,14 @@
       <c r="D50" s="2">
         <v>44989</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -2147,6 +2471,12 @@
       </c>
       <c r="D51" s="2">
         <v>44990</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2158,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D331589-AA9D-4074-9BAA-5A515B94893D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,6 +2587,9 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2283,6 +2616,9 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2309,6 +2645,9 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2335,6 +2674,9 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2358,6 +2700,12 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2381,6 +2729,12 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2404,6 +2758,12 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2427,6 +2787,12 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2450,6 +2816,12 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2473,6 +2845,12 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2496,6 +2874,12 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2519,6 +2903,12 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2542,6 +2932,12 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2565,8 +2961,14 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>208</v>
       </c>
@@ -2588,8 +2990,14 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>211</v>
       </c>
@@ -2611,8 +3019,14 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -2634,8 +3048,14 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>217</v>
       </c>
@@ -2657,8 +3077,14 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>220</v>
       </c>
@@ -2681,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -2704,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>226</v>
       </c>
@@ -2727,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>229</v>
       </c>
@@ -2750,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -2773,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>235</v>
       </c>
@@ -2796,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>238</v>
       </c>
@@ -2819,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -2838,8 +3264,11 @@
       <c r="F28" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>244</v>
       </c>
@@ -2858,8 +3287,11 @@
       <c r="F29" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>247</v>
       </c>
@@ -2878,8 +3310,11 @@
       <c r="F30" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>250</v>
       </c>
@@ -2898,8 +3333,11 @@
       <c r="F31" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>253</v>
       </c>
@@ -2918,8 +3356,11 @@
       <c r="F32" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>256</v>
       </c>
@@ -2938,8 +3379,11 @@
       <c r="F33" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>259</v>
       </c>
@@ -2958,8 +3402,11 @@
       <c r="F34" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>262</v>
       </c>
@@ -2978,8 +3425,11 @@
       <c r="F35" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
@@ -2998,8 +3448,11 @@
       <c r="F36" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>268</v>
       </c>
@@ -3018,8 +3471,11 @@
       <c r="F37" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>271</v>
       </c>
@@ -3038,8 +3494,11 @@
       <c r="F38" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>274</v>
       </c>
@@ -3058,8 +3517,11 @@
       <c r="F39" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>277</v>
       </c>
@@ -3079,7 +3541,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>280</v>
       </c>
@@ -3099,7 +3561,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>283</v>
       </c>
@@ -3119,7 +3581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>286</v>
       </c>
@@ -3139,7 +3601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>289</v>
       </c>
@@ -3159,7 +3621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>292</v>
       </c>
@@ -3179,7 +3641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>295</v>
       </c>
